--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value93.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value93.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9865406393497316</v>
+        <v>3.639979362487793</v>
       </c>
       <c r="B1">
-        <v>1.27622592246647</v>
+        <v>4.312362194061279</v>
       </c>
       <c r="C1">
-        <v>1.93565503776549</v>
+        <v>2.635947227478027</v>
       </c>
       <c r="D1">
-        <v>5.437202030799351</v>
+        <v>2.279310941696167</v>
       </c>
       <c r="E1">
-        <v>2.020582238644409</v>
+        <v>1.775561451911926</v>
       </c>
     </row>
   </sheetData>
